--- a/storage/imports/users.xlsx
+++ b/storage/imports/users.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>firstName</t>
   </si>
@@ -65,11 +68,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,99 +314,113 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="23.0"/>
-    <col customWidth="1" min="7" max="7" width="21.43"/>
+    <col customWidth="1" min="1" max="1" width="8.86"/>
+    <col customWidth="1" min="4" max="4" width="29.0"/>
+    <col customWidth="1" min="5" max="5" width="12.0"/>
+    <col customWidth="1" min="8" max="8" width="21.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
         <v>57.0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="2">
         <v>3.105507245E9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="2">
         <v>111111.0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="2">
         <v>111111.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
         <v>57.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="1">
         <v>3.105507244E9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="2">
         <v>111111.0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="2">
         <v>111111.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2">
         <v>57.0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="2">
         <v>3.103418432E9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="2">
         <v>123456.0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="2">
         <v>123456.0</v>
       </c>
     </row>

--- a/storage/imports/users.xlsx
+++ b/storage/imports/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -37,7 +37,7 @@
     <t>password_confirmation</t>
   </si>
   <si>
-    <t>Hoovert</t>
+    <t>Hoovert1</t>
   </si>
   <si>
     <t>Arredondo</t>
@@ -46,6 +46,9 @@
     <t>harredon01@gmail.com</t>
   </si>
   <si>
+    <t>Hoovert2</t>
+  </si>
+  <si>
     <t>harredon007@hotmail.com</t>
   </si>
   <si>
@@ -56,13 +59,103 @@
   </si>
   <si>
     <t>camilasaca82@gmail.com</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Peñaranda</t>
+  </si>
+  <si>
+    <t>camilasaca83@gmail.com</t>
+  </si>
+  <si>
+    <t>zoo Lab</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>camilasaca84@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis </t>
+  </si>
+  <si>
+    <t>Lascarro</t>
+  </si>
+  <si>
+    <t>camilasaca85@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesica </t>
+  </si>
+  <si>
+    <t>Gongora</t>
+  </si>
+  <si>
+    <t>camilasaca86@gmail.com</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Lasprilla</t>
+  </si>
+  <si>
+    <t>fer_las12@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Francisco </t>
+  </si>
+  <si>
+    <t>Vanegas Angel</t>
+  </si>
+  <si>
+    <t>camilasaca87@gmail.com</t>
+  </si>
+  <si>
+    <t>302 2367474</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Vetivet</t>
+  </si>
+  <si>
+    <t>camilasaca88@gmail.com</t>
+  </si>
+  <si>
+    <t>311 2242989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatiana </t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>mascotasminime@gmail.com</t>
+  </si>
+  <si>
+    <t>310 854 6364</t>
+  </si>
+  <si>
+    <t>Dr. Castro</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>drscanismv@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -73,22 +166,77 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF4372AC"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF555555"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FFC94F0A"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,6 +245,42 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,7 +534,7 @@
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -376,14 +560,14 @@
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>57.0</v>
@@ -403,13 +587,13 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>57.0</v>
@@ -424,7 +608,244 @@
         <v>123456.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.125139794E9</v>
+      </c>
+      <c r="G5" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.200000001E9</v>
+      </c>
+      <c r="G6" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>3.123420546E9</v>
+      </c>
+      <c r="G7" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.175745091E9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3.11524315E9</v>
+      </c>
+      <c r="G9" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>3.153889684E9</v>
+      </c>
+      <c r="G13" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D13"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/storage/imports/users.xlsx
+++ b/storage/imports/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -149,13 +149,19 @@
   </si>
   <si>
     <t>drscanismv@gmail.com</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>info@feroz.com.co</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -200,6 +206,11 @@
       <sz val="14.0"/>
       <color rgb="FFC94F0A"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF777777"/>
+      <name val="Oswald"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -281,6 +292,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,6 +856,32 @@
         <v>123456.0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3.213723648E9</v>
+      </c>
+      <c r="G14" s="5">
+        <v>123456.0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>123456.0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D13"/>

--- a/storage/imports/users.xlsx
+++ b/storage/imports/users.xlsx
@@ -67,7 +67,7 @@
     <t>Peñaranda</t>
   </si>
   <si>
-    <t>camilasaca83@gmail.com</t>
+    <t>Contacto@vet-o.com.co</t>
   </si>
   <si>
     <t>zoo Lab</t>
@@ -76,7 +76,7 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>camilasaca84@gmail.com</t>
+    <t>sac@zoolabcolombia.com</t>
   </si>
   <si>
     <t xml:space="preserve">Luis </t>
@@ -85,7 +85,7 @@
     <t>Lascarro</t>
   </si>
   <si>
-    <t>camilasaca85@gmail.com</t>
+    <t>misioncaninacolombia@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Yesica </t>
@@ -94,7 +94,7 @@
     <t>Gongora</t>
   </si>
   <si>
-    <t>camilasaca86@gmail.com</t>
+    <t>ygongora@aviomar.com.co</t>
   </si>
   <si>
     <t>Jennifer</t>
@@ -112,7 +112,7 @@
     <t>Vanegas Angel</t>
   </si>
   <si>
-    <t>camilasaca87@gmail.com</t>
+    <t>mascotakrie@gmail.com</t>
   </si>
   <si>
     <t>302 2367474</t>
@@ -121,10 +121,10 @@
     <t>Mercedes</t>
   </si>
   <si>
-    <t>Vetivet</t>
-  </si>
-  <si>
-    <t>camilasaca88@gmail.com</t>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>veterinariavetivet@gmail.com</t>
   </si>
   <si>
     <t>311 2242989</t>
@@ -161,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -177,10 +177,28 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF222222"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color rgb="FF222222"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF555555"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF216FDB"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -192,10 +210,6 @@
       <b/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF555555"/>
-      <name val="Roboto"/>
     </font>
     <font>
       <u/>
@@ -247,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,8 +274,8 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -272,28 +286,43 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -658,14 +687,14 @@
       <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>57.0</v>
       </c>
-      <c r="F6" s="5">
-        <v>3.200000001E9</v>
+      <c r="F6" s="8">
+        <v>3.133776385E9</v>
       </c>
       <c r="G6" s="5">
         <v>123456.0</v>
@@ -684,7 +713,7 @@
       <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="5">
@@ -704,13 +733,13 @@
       <c r="A8" s="2">
         <v>7.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="5">
@@ -762,13 +791,13 @@
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="5">
         <v>57.0</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="5">
@@ -785,10 +814,10 @@
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="5">
@@ -808,19 +837,19 @@
       <c r="A12" s="2">
         <v>11.0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="5">
         <v>57.0</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="5">
@@ -840,13 +869,13 @@
       <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="5">
         <v>57.0</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="19">
         <v>3.153889684E9</v>
       </c>
       <c r="G13" s="5">
@@ -860,19 +889,19 @@
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="20" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="5">
         <v>57.0</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="20">
         <v>3.213723648E9</v>
       </c>
       <c r="G14" s="5">
